--- a/medicine/Psychotrope/Alambic_à_colonne/Alambic_à_colonne.xlsx
+++ b/medicine/Psychotrope/Alambic_à_colonne/Alambic_à_colonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alambic_%C3%A0_colonne</t>
+          <t>Alambic_à_colonne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Un alambic à colonne est un type d'alambic. Connu comme Coffey still en anglais, il est typiquement utilisé dans la distillation de whisky de grain. Il fut perfectionné par Aeneas Coffey en 1830, un inventeur et inspecteur des douanes irlandais, et fut utilisé par la suite pour la production de Scotch whisky.
 l'alambic à colonne est aussi utilisé dans la distillation de plantes et d'huiles essentielles.
